--- a/saved_solutions/case_001/case_001_best_arrive_time.xlsx
+++ b/saved_solutions/case_001/case_001_best_arrive_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>13.64390281432433</v>
+        <v>20.91633243111433</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" t="n">
-        <v>3.04138126514911</v>
+        <v>2.109502310972899</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C4" t="n">
-        <v>3.963335710878399</v>
+        <v>4.79650807948178</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C5" t="n">
-        <v>4.811863848302256</v>
+        <v>7.696508079481779</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" t="n">
-        <v>5.666264222834009</v>
+        <v>9.507585107109263</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C7" t="n">
-        <v>6.729278804107474</v>
+        <v>10.31381088193912</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
-        <v>8.310417634191664</v>
+        <v>11.23576532766841</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C9" t="n">
-        <v>8.9812380274416</v>
+        <v>12.08429346509226</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
-        <v>9.381238027441601</v>
+        <v>12.93869383962402</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C11" t="n">
-        <v>10.85772033346494</v>
+        <v>14.00170842089748</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C12" t="n">
-        <v>12.28950243979258</v>
+        <v>15.58284725098167</v>
       </c>
     </row>
     <row r="13">
@@ -576,54 +576,54 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C13" t="n">
-        <v>13.14390281432433</v>
+        <v>16.25366764423161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C14" t="n">
-        <v>25.62830940289028</v>
+        <v>16.65366764423161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C15" t="n">
-        <v>2.109502310972899</v>
+        <v>18.13014995025495</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" t="n">
-        <v>2.609502310972899</v>
+        <v>19.56193205658258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" t="n">
-        <v>3.749677736072037</v>
+        <v>20.41633243111433</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C18" t="n">
-        <v>4.196891331571995</v>
+        <v>18.68157194497716</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C19" t="n">
-        <v>6.040800223030573</v>
+        <v>2.109502310972899</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C20" t="n">
-        <v>6.847025997860428</v>
+        <v>2.609502310972899</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C21" t="n">
-        <v>7.568136252953225</v>
+        <v>3.749677736072037</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n">
-        <v>8.133821677902464</v>
+        <v>4.196891331571995</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C23" t="n">
-        <v>8.494376805448862</v>
+        <v>6.656566106821764</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C24" t="n">
-        <v>9.102653058478683</v>
+        <v>7.377676361914562</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="n">
-        <v>9.302653058478683</v>
+        <v>8.737823412788106</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" t="n">
-        <v>10.10887883330854</v>
+        <v>10.0531180565847</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C27" t="n">
-        <v>11.03083327903783</v>
+        <v>10.61880348153394</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C28" t="n">
-        <v>12.17100870413696</v>
+        <v>10.97935860908033</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" t="n">
-        <v>14.0391628733639</v>
+        <v>11.58763486211016</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C30" t="n">
-        <v>14.70998326661384</v>
+        <v>11.78763486211015</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C31" t="n">
-        <v>16.81948557758674</v>
+        <v>12.59386063694001</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C32" t="n">
-        <v>17.8825001588602</v>
+        <v>13.5158150826693</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C33" t="n">
-        <v>18.73690053339196</v>
+        <v>14.65599050776844</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n">
-        <v>19.40772092664189</v>
+        <v>16.52414467699538</v>
       </c>
     </row>
     <row r="35">
@@ -818,65 +818,65 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C35" t="n">
-        <v>20.30772092664189</v>
+        <v>17.19496507024531</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C36" t="n">
-        <v>21.22967537237118</v>
+        <v>9.688338461963468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C37" t="n">
-        <v>22.03590114720103</v>
+        <v>1.118033988749895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C38" t="n">
-        <v>22.84212692203089</v>
+        <v>2.421874469790425</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C39" t="n">
-        <v>24.27390902835852</v>
+        <v>2.621874469790425</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" t="n">
-        <v>25.12830940289028</v>
+        <v>4.52450422883447</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C41" t="n">
-        <v>8.041780988498036</v>
+        <v>6.02450422883447</v>
       </c>
     </row>
     <row r="42">
@@ -895,43 +895,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C42" t="n">
-        <v>1.118033988749895</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" t="n">
-        <v>139</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.539301029105085</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" t="n">
-        <v>113</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.441930788149129</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="n">
-        <v>132</v>
-      </c>
-      <c r="C45" t="n">
-        <v>5.582106213248267</v>
+        <v>7.228663686713699</v>
       </c>
     </row>
   </sheetData>
